--- a/oto-dom.xlsx
+++ b/oto-dom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Udemy\Python\oto-dom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B0E202-1F9D-4635-A112-6EF601341AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B92A3-E2E1-48DF-9F0C-56A1F8AC7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nazwa</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>https://www.otodom.pl/pl/oferta/blisko-placu-narutowicza-ID4gMm5.html</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -417,21 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,40 +441,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="e">
+      <c r="C2" s="2" t="e">
+        <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!A2")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!C2")</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" t="e">
+      <c r="E2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!E2")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="e">
+      <c r="C3" s="2" t="e">
+        <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!A2")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" t="e">
         <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!C2")</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" t="e">
+      <c r="E3" t="e">
         <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!E2")</f>
         <v>#REF!</v>
       </c>

--- a/oto-dom.xlsx
+++ b/oto-dom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Udemy\Python\oto-dom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3B92A3-E2E1-48DF-9F0C-56A1F8AC7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB956F-514B-4FEC-BE6B-D75A3F2063AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nazwa</t>
   </si>
@@ -57,13 +57,16 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>LINK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -99,15 +111,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,72 +443,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="e">
+      <c r="C2" s="4" t="str">
+        <f ca="1">HYPERLINK("[oto-dom.xlsx]'"&amp;A2&amp;"'!"&amp;CELL("adres", $A$1), "IDŹ")</f>
+        <v>IDŹ</v>
+      </c>
+      <c r="D2" s="2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!A2")</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" t="e">
+      <c r="E2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!C2")</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" t="e">
+      <c r="F2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!E2")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="e">
+      <c r="C3" s="4" t="str">
+        <f ca="1">HYPERLINK("[oto-dom.xlsx]'"&amp;A3&amp;"'!"&amp;CELL("adres", $A$1), "IDŹ")</f>
+        <v>IDŹ</v>
+      </c>
+      <c r="D3" s="2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!A2")</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" t="e">
+      <c r="E3" t="e">
         <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!C2")</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" t="e">
+      <c r="F3" t="e">
         <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!E2")</f>
         <v>#REF!</v>
       </c>

--- a/oto-dom.xlsx
+++ b/oto-dom.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Udemy\Python\oto-dom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB956F-514B-4FEC-BE6B-D75A3F2063AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18C8F6-8D82-4381-B0F8-68D5910E2077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oferty" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oferty!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,7 +62,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Arkusz</t>
   </si>
 </sst>
 </file>
@@ -115,10 +118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,17 +448,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -466,7 +468,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -486,11 +488,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="3" t="str">
         <f ca="1">HYPERLINK("[oto-dom.xlsx]'"&amp;A2&amp;"'!"&amp;CELL("adres", $A$1), "IDŹ")</f>
         <v>IDŹ</v>
       </c>
-      <c r="D2" s="2" t="e">
+      <c r="D2" t="e">
         <f ca="1">INDIRECT("'"&amp;$A2&amp;"'!A2")</f>
         <v>#REF!</v>
       </c>
@@ -510,11 +512,11 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="3" t="str">
         <f ca="1">HYPERLINK("[oto-dom.xlsx]'"&amp;A3&amp;"'!"&amp;CELL("adres", $A$1), "IDŹ")</f>
         <v>IDŹ</v>
       </c>
-      <c r="D3" s="2" t="e">
+      <c r="D3" t="e">
         <f ca="1">INDIRECT("'"&amp;$A3&amp;"'!A2")</f>
         <v>#REF!</v>
       </c>
@@ -528,6 +530,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
